--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Fbn1-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H2">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I2">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J2">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>25.814428718371</v>
+        <v>96.221188075058</v>
       </c>
       <c r="R2">
-        <v>232.329858465339</v>
+        <v>865.990692675522</v>
       </c>
       <c r="S2">
-        <v>0.003890843117045065</v>
+        <v>0.0136731210017887</v>
       </c>
       <c r="T2">
-        <v>0.003890843117045066</v>
+        <v>0.01367312100178871</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H3">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I3">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J3">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>30.454368126808</v>
+        <v>32.275340473976</v>
       </c>
       <c r="R3">
-        <v>274.089313141272</v>
+        <v>290.478064265784</v>
       </c>
       <c r="S3">
-        <v>0.004590191396558822</v>
+        <v>0.004586356129071691</v>
       </c>
       <c r="T3">
-        <v>0.004590191396558822</v>
+        <v>0.004586356129071692</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H4">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I4">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J4">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>3.897964642514999</v>
+        <v>5.533150745968999</v>
       </c>
       <c r="R4">
-        <v>35.08168178263499</v>
+        <v>49.798356713721</v>
       </c>
       <c r="S4">
-        <v>0.0005875151863818422</v>
+        <v>0.0007862659065460304</v>
       </c>
       <c r="T4">
-        <v>0.0005875151863818422</v>
+        <v>0.0007862659065460305</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H5">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I5">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J5">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>3.233541608504</v>
+        <v>1.746454654638</v>
       </c>
       <c r="R5">
-        <v>29.101874476536</v>
+        <v>15.718091891742</v>
       </c>
       <c r="S5">
-        <v>0.0004873709679336474</v>
+        <v>0.000248172843161894</v>
       </c>
       <c r="T5">
-        <v>0.0004873709679336474</v>
+        <v>0.000248172843161894</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H6">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I6">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J6">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>139.316576444034</v>
+        <v>105.823306455511</v>
       </c>
       <c r="R6">
-        <v>1253.849187996306</v>
+        <v>952.409758099599</v>
       </c>
       <c r="S6">
-        <v>0.02099829318174269</v>
+        <v>0.01503759102253942</v>
       </c>
       <c r="T6">
-        <v>0.02099829318174269</v>
+        <v>0.01503759102253943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.337869</v>
+        <v>13.075593</v>
       </c>
       <c r="H7">
-        <v>37.01360699999999</v>
+        <v>39.226779</v>
       </c>
       <c r="I7">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="J7">
-        <v>0.03142928266772069</v>
+        <v>0.03468801977938709</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>5.805785776476999</v>
+        <v>2.508870689813</v>
       </c>
       <c r="R7">
-        <v>52.25207198829299</v>
+        <v>22.579836208317</v>
       </c>
       <c r="S7">
-        <v>0.0008750688180586304</v>
+        <v>0.0003565128762793399</v>
       </c>
       <c r="T7">
-        <v>0.0008750688180586305</v>
+        <v>0.0003565128762793399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I8">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J8">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>740.2947394732907</v>
+        <v>2603.704061954283</v>
       </c>
       <c r="R8">
-        <v>6662.652655259617</v>
+        <v>23433.33655758855</v>
       </c>
       <c r="S8">
-        <v>0.1115798735307472</v>
+        <v>0.3699887873363095</v>
       </c>
       <c r="T8">
-        <v>0.1115798735307472</v>
+        <v>0.3699887873363094</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I9">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J9">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
         <v>873.3568642646187</v>
@@ -1013,10 +1013,10 @@
         <v>7860.211778381569</v>
       </c>
       <c r="S9">
-        <v>0.131635473367256</v>
+        <v>0.1241048289023185</v>
       </c>
       <c r="T9">
-        <v>0.131635473367256</v>
+        <v>0.1241048289023185</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I10">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J10">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>111.78410148016</v>
+        <v>149.7246849773547</v>
       </c>
       <c r="R10">
-        <v>1006.05691332144</v>
+        <v>1347.522164796192</v>
       </c>
       <c r="S10">
-        <v>0.01684849998363992</v>
+        <v>0.02127601805387324</v>
       </c>
       <c r="T10">
-        <v>0.01684849998363992</v>
+        <v>0.02127601805387323</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I11">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J11">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>92.73007234670935</v>
+        <v>47.258313571776</v>
       </c>
       <c r="R11">
-        <v>834.5706511203841</v>
+        <v>425.324822145984</v>
       </c>
       <c r="S11">
-        <v>0.01397660849556282</v>
+        <v>0.00671545064797286</v>
       </c>
       <c r="T11">
-        <v>0.01397660849556282</v>
+        <v>0.006715450647972859</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I12">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J12">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>3995.258999845697</v>
+        <v>2863.533265175605</v>
       </c>
       <c r="R12">
-        <v>35957.33099861127</v>
+        <v>25771.79938658045</v>
       </c>
       <c r="S12">
-        <v>0.6021797402512084</v>
+        <v>0.4069107606201168</v>
       </c>
       <c r="T12">
-        <v>0.6021797402512082</v>
+        <v>0.4069107606201167</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1061.459808</v>
       </c>
       <c r="I13">
-        <v>0.9013150311466954</v>
+        <v>0.9386429310173142</v>
       </c>
       <c r="J13">
-        <v>0.9013150311466953</v>
+        <v>0.938642931017314</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>166.4957499437547</v>
+        <v>67.88896434004268</v>
       </c>
       <c r="R13">
-        <v>1498.461749493792</v>
+        <v>611.0006790603841</v>
       </c>
       <c r="S13">
-        <v>0.02509483551828118</v>
+        <v>0.009647085456723223</v>
       </c>
       <c r="T13">
-        <v>0.02509483551828118</v>
+        <v>0.009647085456723221</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H14">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I14">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J14">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>0.4434892572811112</v>
+        <v>0.2356521119713333</v>
       </c>
       <c r="R14">
-        <v>3.991403315530001</v>
+        <v>2.120869007742</v>
       </c>
       <c r="S14">
-        <v>6.684428863411737E-05</v>
+        <v>3.348638595896031E-05</v>
       </c>
       <c r="T14">
-        <v>6.684428863411738E-05</v>
+        <v>3.348638595896031E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H15">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I15">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J15">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>0.5232029439377779</v>
+        <v>0.07904446306933334</v>
       </c>
       <c r="R15">
-        <v>4.70882649544</v>
+        <v>0.711400167624</v>
       </c>
       <c r="S15">
-        <v>7.885902087731654E-05</v>
+        <v>1.123229228083673E-05</v>
       </c>
       <c r="T15">
-        <v>7.885902087731654E-05</v>
+        <v>1.123229228083673E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H16">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I16">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J16">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>0.06696663571666668</v>
+        <v>0.01355105549233333</v>
       </c>
       <c r="R16">
-        <v>0.6026997214500001</v>
+        <v>0.121959499431</v>
       </c>
       <c r="S16">
-        <v>1.009345108863207E-05</v>
+        <v>1.925617685203534E-06</v>
       </c>
       <c r="T16">
-        <v>1.009345108863207E-05</v>
+        <v>1.925617685203534E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H17">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I17">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J17">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.05555191563555557</v>
+        <v>0.004277184018</v>
       </c>
       <c r="R17">
-        <v>0.4999672407200001</v>
+        <v>0.038494656162</v>
       </c>
       <c r="S17">
-        <v>8.372983611117044E-06</v>
+        <v>6.077918574380016E-07</v>
       </c>
       <c r="T17">
-        <v>8.372983611117044E-06</v>
+        <v>6.077918574380016E-07</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H18">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I18">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J18">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>2.393444599846667</v>
+        <v>0.2591683407876667</v>
       </c>
       <c r="R18">
-        <v>21.54100139862</v>
+        <v>2.332515067089</v>
       </c>
       <c r="S18">
-        <v>0.0003607485390801918</v>
+        <v>3.682806411263948E-05</v>
       </c>
       <c r="T18">
-        <v>0.0003607485390801918</v>
+        <v>3.682806411263948E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2119633333333334</v>
+        <v>0.032023</v>
       </c>
       <c r="H19">
-        <v>0.6358900000000001</v>
+        <v>0.096069</v>
       </c>
       <c r="I19">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488015E-05</v>
       </c>
       <c r="J19">
-        <v>0.0005399518764971195</v>
+        <v>8.495327572488014E-05</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>0.0997428085677778</v>
+        <v>0.006144391776333334</v>
       </c>
       <c r="R19">
-        <v>0.8976852771100001</v>
+        <v>0.055299525987</v>
       </c>
       <c r="S19">
-        <v>1.503359320574465E-05</v>
+        <v>8.731238298020826E-07</v>
       </c>
       <c r="T19">
-        <v>1.503359320574465E-05</v>
+        <v>8.731238298020825E-07</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H20">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I20">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J20">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>53.72258089803134</v>
+        <v>72.04995928819955</v>
       </c>
       <c r="R20">
-        <v>483.5032280822821</v>
+        <v>648.449633593796</v>
       </c>
       <c r="S20">
-        <v>0.008097259730107728</v>
+        <v>0.01023836673844675</v>
       </c>
       <c r="T20">
-        <v>0.00809725973010773</v>
+        <v>0.01023836673844675</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H21">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I21">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J21">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>63.37878994883734</v>
+        <v>24.16761852232355</v>
       </c>
       <c r="R21">
-        <v>570.4091095395361</v>
+        <v>217.508566700912</v>
       </c>
       <c r="S21">
-        <v>0.009552678129327981</v>
+        <v>0.003434241241368092</v>
       </c>
       <c r="T21">
-        <v>0.009552678129327981</v>
+        <v>0.003434241241368093</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H22">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I22">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J22">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>8.112080384570001</v>
+        <v>4.143196461797555</v>
       </c>
       <c r="R22">
-        <v>73.00872346113</v>
+        <v>37.28876815617799</v>
       </c>
       <c r="S22">
-        <v>0.001222681798368003</v>
+        <v>0.0005887521001315246</v>
       </c>
       <c r="T22">
-        <v>0.001222681798368003</v>
+        <v>0.0005887521001315246</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H23">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I23">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J23">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>6.729345148218668</v>
+        <v>1.307736781084</v>
       </c>
       <c r="R23">
-        <v>60.56410633396801</v>
+        <v>11.769631029756</v>
       </c>
       <c r="S23">
-        <v>0.001014270993087445</v>
+        <v>0.0001858306221733941</v>
       </c>
       <c r="T23">
-        <v>0.001014270993087445</v>
+        <v>0.0001858306221733941</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H24">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I24">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J24">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>289.932662469692</v>
+        <v>79.23997899417577</v>
       </c>
       <c r="R24">
-        <v>2609.393962227228</v>
+        <v>713.1598109475819</v>
       </c>
       <c r="S24">
-        <v>0.043699688902042</v>
+        <v>0.01126007527698995</v>
       </c>
       <c r="T24">
-        <v>0.043699688902042</v>
+        <v>0.01126007527698995</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.676422</v>
+        <v>9.790940666666666</v>
       </c>
       <c r="H25">
-        <v>77.02926600000001</v>
+        <v>29.372822</v>
       </c>
       <c r="I25">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="J25">
-        <v>0.06540769114453092</v>
+        <v>0.02597422109300425</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>12.08245975365934</v>
+        <v>1.878630213122889</v>
       </c>
       <c r="R25">
-        <v>108.742137782934</v>
+        <v>16.907671918106</v>
       </c>
       <c r="S25">
-        <v>0.001821111591597757</v>
+        <v>0.0002669551138945431</v>
       </c>
       <c r="T25">
-        <v>0.001821111591597757</v>
+        <v>0.0002669551138945431</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H26">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I26">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J26">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>0.2702488469426667</v>
+        <v>1.320867507297333</v>
       </c>
       <c r="R26">
-        <v>2.432239622484</v>
+        <v>11.887807565676</v>
       </c>
       <c r="S26">
-        <v>4.073287375396909E-05</v>
+        <v>0.0001876965106741287</v>
       </c>
       <c r="T26">
-        <v>4.07328737539691E-05</v>
+        <v>0.0001876965106741287</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H27">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I27">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J27">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>0.3188239399146667</v>
+        <v>0.4430567671413334</v>
       </c>
       <c r="R27">
-        <v>2.869415459232</v>
+        <v>3.987510904272</v>
       </c>
       <c r="S27">
-        <v>4.805428567487008E-05</v>
+        <v>6.2958781833573E-05</v>
       </c>
       <c r="T27">
-        <v>4.805428567487008E-05</v>
+        <v>6.295878183357301E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H28">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I28">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J28">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.04080742834</v>
+        <v>0.07595581783533334</v>
       </c>
       <c r="R28">
-        <v>0.36726685506</v>
+        <v>0.6836023605179999</v>
       </c>
       <c r="S28">
-        <v>6.150641697834875E-06</v>
+        <v>1.079339289847682E-05</v>
       </c>
       <c r="T28">
-        <v>6.150641697834875E-06</v>
+        <v>1.079339289847682E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H29">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I29">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J29">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.03385164555733334</v>
+        <v>0.023974295604</v>
       </c>
       <c r="R29">
-        <v>0.304664810016</v>
+        <v>0.215768660436</v>
       </c>
       <c r="S29">
-        <v>5.102241213793211E-06</v>
+        <v>3.406769873496446E-06</v>
       </c>
       <c r="T29">
-        <v>5.102241213793211E-06</v>
+        <v>3.406769873496446E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H30">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I30">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J30">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>1.458492246904</v>
+        <v>1.452679704004667</v>
       </c>
       <c r="R30">
-        <v>13.126430222136</v>
+        <v>13.074117336042</v>
       </c>
       <c r="S30">
-        <v>0.0002198291731357022</v>
+        <v>0.0002064271473576527</v>
       </c>
       <c r="T30">
-        <v>0.0002198291731357022</v>
+        <v>0.0002064271473576527</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.129164</v>
+        <v>0.179494</v>
       </c>
       <c r="H31">
-        <v>0.387492</v>
+        <v>0.538482</v>
       </c>
       <c r="I31">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485507</v>
       </c>
       <c r="J31">
-        <v>0.0003290302293283772</v>
+        <v>0.0004761766003485506</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.06078022987866667</v>
+        <v>0.03444029158733334</v>
       </c>
       <c r="R31">
-        <v>0.547022068908</v>
+        <v>0.309962624286</v>
       </c>
       <c r="S31">
-        <v>9.16101385220778E-06</v>
+        <v>4.893997711223028E-06</v>
       </c>
       <c r="T31">
-        <v>9.16101385220778E-06</v>
+        <v>4.893997711223027E-06</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H32">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I32">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J32">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N32">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P32">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q32">
-        <v>0.804111881839</v>
+        <v>0.3708658788284444</v>
       </c>
       <c r="R32">
-        <v>7.237006936551</v>
+        <v>3.337792909456</v>
       </c>
       <c r="S32">
-        <v>0.0001211986217057319</v>
+        <v>5.27003889486424E-05</v>
       </c>
       <c r="T32">
-        <v>0.0001211986217057319</v>
+        <v>5.27003889486424E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H33">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I33">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J33">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P33">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q33">
-        <v>0.9486446332719999</v>
+        <v>0.1243990304924444</v>
       </c>
       <c r="R33">
-        <v>8.537801699448</v>
+        <v>1.119591274432</v>
       </c>
       <c r="S33">
-        <v>0.0001429831154567197</v>
+        <v>1.767721881693644E-05</v>
       </c>
       <c r="T33">
-        <v>0.0001429831154567197</v>
+        <v>1.767721881693644E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H34">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I34">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J34">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N34">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P34">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q34">
-        <v>0.121420455135</v>
+        <v>0.02132645475644444</v>
       </c>
       <c r="R34">
-        <v>1.092784096215</v>
+        <v>0.191938092808</v>
       </c>
       <c r="S34">
-        <v>1.830092570649404E-05</v>
+        <v>3.030509207562197E-06</v>
       </c>
       <c r="T34">
-        <v>1.830092570649404E-05</v>
+        <v>3.030509207562197E-06</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H35">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I35">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J35">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N35">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O35">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P35">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q35">
-        <v>0.100723872536</v>
+        <v>0.006731370223999999</v>
       </c>
       <c r="R35">
-        <v>0.906514852824</v>
+        <v>0.060582332016</v>
       </c>
       <c r="S35">
-        <v>1.518146267943251E-05</v>
+        <v>9.565340173184517E-07</v>
       </c>
       <c r="T35">
-        <v>1.518146267943251E-05</v>
+        <v>9.565340173184517E-07</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H36">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I36">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J36">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N36">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P36">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q36">
-        <v>4.339670487306</v>
+        <v>0.4078753789502221</v>
       </c>
       <c r="R36">
-        <v>39.05703438575399</v>
+        <v>3.670878410552</v>
       </c>
       <c r="S36">
-        <v>0.0006540906727004909</v>
+        <v>5.795947360041416E-05</v>
       </c>
       <c r="T36">
-        <v>0.0006540906727004909</v>
+        <v>5.795947360041415E-05</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.384321</v>
+        <v>0.05039733333333333</v>
       </c>
       <c r="H37">
-        <v>1.152963</v>
+        <v>0.151192</v>
       </c>
       <c r="I37">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="J37">
-        <v>0.0009790129352273951</v>
+        <v>0.000133698234221196</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N37">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P37">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q37">
-        <v>0.180848523793</v>
+        <v>0.009669954735111111</v>
       </c>
       <c r="R37">
-        <v>1.627636714137</v>
+        <v>0.08702959261599999</v>
       </c>
       <c r="S37">
-        <v>2.725813697852611E-05</v>
+        <v>1.374109630322336E-06</v>
       </c>
       <c r="T37">
-        <v>2.725813697852611E-05</v>
+        <v>1.374109630322335E-06</v>
       </c>
     </row>
   </sheetData>
